--- a/JASON TIPATET.xlsx
+++ b/JASON TIPATET.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="825" windowWidth="17715" windowHeight="10800" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="960" yWindow="825" windowWidth="17715" windowHeight="10800" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="DECEMBER 20" sheetId="1" r:id="rId1"/>
@@ -3894,8 +3894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4805,8 +4805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5088,10 +5088,12 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G13" s="16"/>
+      <c r="G13" s="16">
+        <v>2000</v>
+      </c>
       <c r="H13" s="17">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="I13" s="15"/>
     </row>
@@ -5300,11 +5302,11 @@
       </c>
       <c r="G21" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H21" s="16">
         <f t="shared" si="2"/>
-        <v>61500</v>
+        <v>59500</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="2"/>
@@ -5318,7 +5320,7 @@
       </c>
       <c r="H22" s="27">
         <f>H21-3100-D14-D18</f>
-        <v>54400</v>
+        <v>52400</v>
       </c>
       <c r="I22" s="3"/>
     </row>
@@ -5398,7 +5400,7 @@
       </c>
       <c r="F27" s="37">
         <f>G21</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -5611,7 +5613,7 @@
       </c>
       <c r="F41" s="44">
         <f>F27+F28+F30-G31</f>
-        <v>-12954</v>
+        <v>-10954</v>
       </c>
       <c r="G41" s="44">
         <f>SUM(G33:G40)</f>
@@ -5619,7 +5621,7 @@
       </c>
       <c r="H41" s="44">
         <f>F41-G41</f>
-        <v>-12954</v>
+        <v>-10954</v>
       </c>
       <c r="I41" s="43"/>
     </row>

--- a/JASON TIPATET.xlsx
+++ b/JASON TIPATET.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="825" windowWidth="17715" windowHeight="10800" firstSheet="8" activeTab="12"/>
+    <workbookView minimized="1" xWindow="960" yWindow="825" windowWidth="17715" windowHeight="10800" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="DECEMBER 20" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="145">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -460,6 +460,12 @@
   </si>
   <si>
     <t>FOR THE MONTH OF DECEMBER 2021</t>
+  </si>
+  <si>
+    <t>PAID ON `3/12</t>
+  </si>
+  <si>
+    <t>PAID ON 16/12</t>
   </si>
 </sst>
 </file>
@@ -3895,7 +3901,7 @@
   <dimension ref="A2:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3904,7 +3910,7 @@
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
@@ -3916,7 +3922,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -3928,7 +3934,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>135</v>
@@ -4381,12 +4387,12 @@
         <v>8800</v>
       </c>
       <c r="G20" s="16">
-        <f>1000+2500+1000+1300</f>
-        <v>5800</v>
+        <f>1000+2500+1000+1300+1000</f>
+        <v>6800</v>
       </c>
       <c r="H20" s="17">
         <f>F20-G20</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="I20" s="15"/>
     </row>
@@ -4413,11 +4419,11 @@
       </c>
       <c r="G21" s="16">
         <f t="shared" si="2"/>
-        <v>40800</v>
+        <v>41800</v>
       </c>
       <c r="H21" s="16">
         <f t="shared" si="2"/>
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="2"/>
@@ -4431,7 +4437,7 @@
       </c>
       <c r="H22" s="27">
         <f>H21-3100-D14-D18</f>
-        <v>9400</v>
+        <v>8400</v>
       </c>
       <c r="I22" s="3"/>
     </row>
@@ -4511,7 +4517,7 @@
       </c>
       <c r="F27" s="37">
         <f>G21</f>
-        <v>40800</v>
+        <v>41800</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -4750,7 +4756,7 @@
       </c>
       <c r="F41" s="44">
         <f>F27+F28+F30-G31</f>
-        <v>31633</v>
+        <v>32633</v>
       </c>
       <c r="G41" s="44">
         <f>SUM(G33:G40)</f>
@@ -4758,7 +4764,7 @@
       </c>
       <c r="H41" s="44">
         <f>F41-G41</f>
-        <v>-8454</v>
+        <v>-7454</v>
       </c>
       <c r="I41" s="43"/>
     </row>
@@ -4803,15 +4809,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I43"/>
+  <dimension ref="A2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
@@ -4907,10 +4913,12 @@
         <f>C6+D6+E6</f>
         <v>2000</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="16">
+        <v>2000</v>
+      </c>
       <c r="H6" s="17">
         <f>F6-G6</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I6" s="15"/>
     </row>
@@ -4933,10 +4941,13 @@
         <f t="shared" ref="F7:F18" si="0">C7+D7+E7</f>
         <v>3500</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="16">
+        <f>2000</f>
+        <v>2000</v>
+      </c>
       <c r="H7" s="17">
         <f t="shared" ref="H7:H18" si="1">F7-G7</f>
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="I7" s="15"/>
     </row>
@@ -4959,10 +4970,12 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="G8" s="54"/>
+      <c r="G8" s="54">
+        <v>2000</v>
+      </c>
       <c r="H8" s="55">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I8" s="15"/>
     </row>
@@ -4985,10 +4998,12 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="16">
+        <v>2000</v>
+      </c>
       <c r="H9" s="17">
         <f>F9-G9</f>
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="I9" s="15"/>
     </row>
@@ -5037,10 +5052,12 @@
         <f>C11+D11+E11</f>
         <v>2000</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="16">
+        <v>2000</v>
+      </c>
       <c r="H11" s="17">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I11" s="15"/>
     </row>
@@ -5063,10 +5080,12 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="16">
+        <v>2000</v>
+      </c>
       <c r="H12" s="17">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I12" s="15"/>
     </row>
@@ -5142,10 +5161,12 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="16">
+        <v>2000</v>
+      </c>
       <c r="H15" s="17">
         <f>F15-G15</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I15" s="15"/>
     </row>
@@ -5194,10 +5215,12 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="16">
+        <v>5000</v>
+      </c>
       <c r="H17" s="17">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I17" s="15"/>
     </row>
@@ -5220,10 +5243,12 @@
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="16">
+        <v>5000</v>
+      </c>
       <c r="H18" s="17">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="I18" s="15"/>
     </row>
@@ -5246,10 +5271,13 @@
         <f>C19+D19+E19</f>
         <v>10000</v>
       </c>
-      <c r="G19" s="16"/>
+      <c r="G19" s="16">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
       <c r="H19" s="17">
         <f>F19-G19</f>
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="I19" s="15"/>
     </row>
@@ -5263,19 +5291,19 @@
       <c r="C20" s="14"/>
       <c r="D20" s="15">
         <f>'NOVEMBER 21'!H20</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E20" s="16">
         <v>5000</v>
       </c>
       <c r="F20" s="16">
         <f>C20+D20+E20</f>
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="17">
         <f>F20-G20</f>
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="I20" s="15"/>
     </row>
@@ -5290,7 +5318,7 @@
       </c>
       <c r="D21" s="15">
         <f>SUM(D6:D20)</f>
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="E21" s="26">
         <f t="shared" si="2"/>
@@ -5298,15 +5326,15 @@
       </c>
       <c r="F21" s="16">
         <f t="shared" si="2"/>
-        <v>61500</v>
+        <v>60500</v>
       </c>
       <c r="G21" s="16">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>31000</v>
       </c>
       <c r="H21" s="16">
         <f t="shared" si="2"/>
-        <v>59500</v>
+        <v>29500</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="2"/>
@@ -5320,7 +5348,7 @@
       </c>
       <c r="H22" s="27">
         <f>H21-3100-D14-D18</f>
-        <v>52400</v>
+        <v>22400</v>
       </c>
       <c r="I22" s="3"/>
     </row>
@@ -5400,7 +5428,7 @@
       </c>
       <c r="F27" s="37">
         <f>G21</f>
-        <v>2000</v>
+        <v>31000</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -5421,7 +5449,7 @@
       </c>
       <c r="F28" s="37">
         <f>'NOVEMBER 21'!H41</f>
-        <v>-8454</v>
+        <v>-7454</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
@@ -5527,24 +5555,40 @@
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="39" t="s">
+        <v>143</v>
+      </c>
       <c r="B35" s="38"/>
-      <c r="C35" s="25"/>
+      <c r="C35" s="25">
+        <v>20000</v>
+      </c>
       <c r="D35" s="25"/>
-      <c r="E35" s="39"/>
+      <c r="E35" s="39" t="s">
+        <v>143</v>
+      </c>
       <c r="F35" s="38"/>
-      <c r="G35" s="25"/>
+      <c r="G35" s="25">
+        <v>20000</v>
+      </c>
       <c r="H35" s="25"/>
       <c r="I35" s="33"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="B36" s="38"/>
-      <c r="C36" s="25"/>
+      <c r="C36" s="25">
+        <v>6000</v>
+      </c>
       <c r="D36" s="25"/>
-      <c r="E36" s="39"/>
+      <c r="E36" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="F36" s="38"/>
-      <c r="G36" s="25"/>
+      <c r="G36" s="25">
+        <v>6000</v>
+      </c>
       <c r="H36" s="25"/>
       <c r="I36" s="43"/>
     </row>
@@ -5602,26 +5646,26 @@
       </c>
       <c r="C41" s="44">
         <f>SUM(C33:C40)</f>
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="D41" s="44">
         <f>B41-C41</f>
-        <v>43546</v>
+        <v>17546</v>
       </c>
       <c r="E41" s="36" t="s">
         <v>15</v>
       </c>
       <c r="F41" s="44">
         <f>F27+F28+F30-G31</f>
-        <v>-10954</v>
+        <v>19046</v>
       </c>
       <c r="G41" s="44">
         <f>SUM(G33:G40)</f>
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="H41" s="44">
         <f>F41-G41</f>
-        <v>-10954</v>
+        <v>-6954</v>
       </c>
       <c r="I41" s="43"/>
     </row>
@@ -5657,7 +5701,16 @@
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="43"/>
+      <c r="I43" s="43">
+        <f>5*5</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f>5*3</f>
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
